--- a/public/files/template/inventory/bhp_distribusi_umum.xlsx
+++ b/public/files/template/inventory/bhp_distribusi_umum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>TAHUN [b.tahun]</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>DAFTAR BARANG  HABIS PAKAI DISTRIBUSI UMUM</t>
+  </si>
+  <si>
+    <t>Tanggal Distibusi</t>
+  </si>
+  <si>
+    <t>: [b.tgl_distribusi]</t>
+  </si>
+  <si>
+    <t>Nomor Dokumen</t>
+  </si>
+  <si>
+    <t>Jenis Barang</t>
+  </si>
+  <si>
+    <t>Penerima</t>
+  </si>
+  <si>
+    <t>: [b.nomor_dokumen]</t>
+  </si>
+  <si>
+    <t>: [b.jenis_bhp]</t>
+  </si>
+  <si>
+    <t>: [b.jumlah]</t>
+  </si>
+  <si>
+    <t>: [b.penerima]</t>
   </si>
 </sst>
 </file>
@@ -79,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +145,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,10 +214,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,28 +547,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -543,29 +584,29 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -583,45 +624,110 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -634,6 +740,7 @@
     <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
